--- a/data/trans_dic/P44_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P44_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en situación de desempleo debido a la COVID-19</t>
+          <t>Población que se encuentra en situación de desempleo debido a la COVID-19 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>41,89%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,3; 69,7</t>
+          <t>2,22; 24,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,04; 40,35</t>
+          <t>0,45; 4,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 43,86</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,92; 40,63</t>
+          <t>0,0; 5,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,95; 40,63</t>
+          <t>1,78; 7,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,58; 36,08</t>
+          <t>1,03; 6,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,04; 37,46</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,56; 51,69</t>
+          <t>0,39; 3,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,12; 34,64</t>
+          <t>1,41; 7,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,12; 30,91</t>
+          <t>2,96; 13,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 28,68</t>
+          <t>1,13; 4,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 2,66</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 2,01</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 4,87</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,32%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,07%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>7,53%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,89; 58,64</t>
+          <t>2,28; 10,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,7; 55,01</t>
+          <t>1,8; 9,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 50,57</t>
+          <t>0,0; 5,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 44,83</t>
+          <t>0,0; 5,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,93; 46,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,36; 48,37</t>
+          <t>4,87; 14,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,82; 48,0</t>
+          <t>5,62; 15,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,78; 45,18</t>
+          <t>3,75; 12,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,25; 48,65</t>
+          <t>3,6; 13,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,31; 48,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,04; 43,3</t>
+          <t>4,34; 10,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,62; 38,28</t>
+          <t>4,66; 11,13</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 7,87</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,45; 8,01</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,17 +1021,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1041,57 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,83</t>
+          <t>0,0; 18,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,41</t>
+          <t>0,0; 19,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,68; 55,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,71; 54,9</t>
+          <t>3,48; 22,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 53,56</t>
+          <t>4,72; 24,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 44,57</t>
+          <t>2,46; 23,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 41,55</t>
+          <t>2,17; 20,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 39,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 59,27</t>
+          <t>2,53; 15,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 43,7</t>
+          <t>3,1; 17,26</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,26; 12,09</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 10,24</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,53%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,31; 53,88</t>
+          <t>3,35; 13,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 41,68</t>
+          <t>1,64; 5,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,44; 42,79</t>
+          <t>0,3; 3,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 33,02</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,34; 40,19</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,36; 39,6</t>
+          <t>4,31; 9,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,04; 37,12</t>
+          <t>4,53; 9,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 35,2</t>
+          <t>2,62; 7,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,32; 42,55</t>
+          <t>2,55; 7,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 36,89</t>
+          <t>0,71; 3,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,15; 36,04</t>
+          <t>4,55; 10,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,66; 30,16</t>
+          <t>3,54; 6,9</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 4,45</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 4,02</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 2,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en situación de desempleo debido a la COVID-19 (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28361</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7572</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5074</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7683</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16609</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15482</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5456</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19167</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>44969</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23054</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>8781</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5456</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>26850</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8119; 89026</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1933; 20841</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19482</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 28639</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7735; 30798</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5229; 31086</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12154</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1586; 13765</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7965; 39860</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23721; 108305</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10605; 42506</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2164; 20979</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1573; 15822</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>12567; 52618</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16610</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17120</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5020</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30043</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>41945</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24403</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24452</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>46653</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>59065</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>29423</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>29403</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6953; 32398</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6454; 35399</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18666</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18370</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17067; 49376</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23901; 67613</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12676; 42925</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12048; 43546</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28402; 68188</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>36581; 87313</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>16257; 51710</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16082; 52656</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3403</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8686</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12752</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8529</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6241</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12090</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16818</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>8529</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6241</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15953</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19664</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2876; 18603</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4778; 25250</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2002; 19489</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1791; 17163</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4228; 26152</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6290; 35034</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2025; 19479</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1684; 17220</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>48374</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28758</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10094</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7683</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>55338</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>70179</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36639</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>36149</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>19167</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>103712</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>98937</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>46733</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>41100</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>26850</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>25297; 104117</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14615; 50562</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2306; 24489</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 18205</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 29537</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>37377; 80335</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>46869; 102727</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22047; 59276</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>21059; 59528</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7860; 41633</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>73850; 163725</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>68148; 132905</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>29078; 71382</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>25257; 64823</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>12525; 54368</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
